--- a/xlsx/FR/investments_win_lose_FR.xlsx
+++ b/xlsx/FR/investments_win_lose_FR.xlsx
@@ -12,30 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">The middle class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-income earners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your household financially</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those living in rural areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income earners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither win nor lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win a lot</t>
   </si>
 </sst>
 </file>
@@ -380,61 +389,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0969555738497526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.184691315047351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0634204147999671</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.124388717956718</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0247868157112185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.369256761125836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.333428359247654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.282497255377279</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.266994696734499</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0797063680441688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.320680378819364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.256555147545278</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.397447190572696</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.340292153178189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.496789564201599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.175594738174279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.180866537136795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.216629839997814</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.212275582414565</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.299232704946419</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0375125480307689</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0444586410229217</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0400052992522448</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0560488497160299</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0994845470965945</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/investments_win_lose_FR.xlsx
+++ b/xlsx/FR/investments_win_lose_FR.xlsx
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0969555738497526</v>
+        <v>0.090127209790059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184691315047351</v>
+        <v>0.178168614356399</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0634204147999671</v>
+        <v>0.0560969365362079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.124388717956718</v>
+        <v>0.108732468376302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0247868157112185</v>
+        <v>0.0285834863538332</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.369256761125836</v>
+        <v>0.362526653319093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.333428359247654</v>
+        <v>0.32424285265638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.282497255377279</v>
+        <v>0.284512746922487</v>
       </c>
       <c r="E3" t="n">
-        <v>0.266994696734499</v>
+        <v>0.283280439735414</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0797063680441688</v>
+        <v>0.0771020118884654</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.320680378819364</v>
+        <v>0.331797925118725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.256555147545278</v>
+        <v>0.252812033001077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.397447190572696</v>
+        <v>0.394625271199977</v>
       </c>
       <c r="E4" t="n">
-        <v>0.340292153178189</v>
+        <v>0.321709331696364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.496789564201599</v>
+        <v>0.49307748971329</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175594738174279</v>
+        <v>0.172830180802245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.180866537136795</v>
+        <v>0.191989892746196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.216629839997814</v>
+        <v>0.224438926900484</v>
       </c>
       <c r="E5" t="n">
-        <v>0.212275582414565</v>
+        <v>0.224866938825185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.299232704946419</v>
+        <v>0.2938818646678</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0375125480307689</v>
+        <v>0.0427180309698776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0444586410229217</v>
+        <v>0.0527866072399485</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0400052992522448</v>
+        <v>0.0403261184408442</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0560488497160299</v>
+        <v>0.0614108213667337</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0994845470965945</v>
+        <v>0.107355147376611</v>
       </c>
     </row>
   </sheetData>
